--- a/public/static/template/dwtzqk.xlsx
+++ b/public/static/template/dwtzqk.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>单位</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>3.留存收益</t>
+  </si>
+  <si>
+    <t>合计</t>
   </si>
   <si>
     <t>贡献资金</t>
@@ -80,10 +83,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -95,6 +98,7 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -106,32 +110,20 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,9 +137,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,7 +147,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,17 +168,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -191,19 +182,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -215,6 +197,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -224,7 +237,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,36 +268,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,192 +282,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -498,15 +504,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,47 +517,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -571,6 +532,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -602,9 +578,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,152 +606,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -768,28 +761,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1111,43 +1098,43 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:I12"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.46428571428571" defaultRowHeight="14.4" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.3571428571429" defaultRowHeight="14.4" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.9642857142857" style="1" customWidth="1"/>
-    <col min="2" max="3" width="13.3482142857143" style="1" customWidth="1"/>
-    <col min="4" max="5" width="12.1428571428571" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.0089285714286" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.0357142857143" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.3571428571429" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.3571428571429" style="1" customWidth="1"/>
+    <col min="2" max="3" width="16.0714285714286" style="1" customWidth="1"/>
+    <col min="4" max="5" width="14.5714285714286" style="1" customWidth="1"/>
+    <col min="6" max="7" width="16.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.3571428571429" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.6428571428571" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.4285714285714" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" customHeight="1" spans="1:9">
+    <row r="1" ht="34.5" customHeight="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -1156,160 +1143,211 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" ht="34.5" customHeight="1" spans="1:9">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+    <row r="2" ht="34.5" customHeight="1" spans="1:10">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="G2" s="4">
+        <f>SUM(B2:F2)</f>
+        <v>0</v>
+      </c>
       <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8" t="e">
+        <f>I2/G2/3%</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="3" ht="34.5" customHeight="1" spans="1:9">
-      <c r="A3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="10"/>
+    <row r="3" ht="34.5" customHeight="1" spans="1:10">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4">
+        <f>SUM(B3:F3)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="8" t="e">
+        <f t="shared" ref="J3:J11" si="0">I3/G3/3%</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="4" ht="34.5" customHeight="1" spans="1:9">
-      <c r="A4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="10"/>
+    <row r="4" ht="34.5" customHeight="1" spans="1:10">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4">
+        <f>SUM(B4:F4)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="5" ht="34.5" customHeight="1" spans="1:9">
-      <c r="A5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="10"/>
+    <row r="5" ht="34.5" customHeight="1" spans="1:10">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4">
+        <f>SUM(B5:F5)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="6" ht="34.5" customHeight="1" spans="1:9">
-      <c r="A6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="10"/>
+    <row r="6" ht="34.5" customHeight="1" spans="1:10">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4">
+        <f>SUM(B6:F6)</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="7" ht="34.5" customHeight="1" spans="1:9">
-      <c r="A7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="10"/>
+    <row r="7" ht="34.5" customHeight="1" spans="1:10">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4">
+        <f>SUM(B7:F7)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="8" ht="34.5" customHeight="1" spans="1:9">
-      <c r="A8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="10"/>
+    <row r="8" ht="34.5" customHeight="1" spans="1:10">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4">
+        <f>SUM(B8:F8)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="9" ht="34.5" customHeight="1" spans="1:9">
-      <c r="A9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="10"/>
+    <row r="9" ht="34.5" customHeight="1" spans="1:10">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4">
+        <f>SUM(B9:F9)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="10" ht="34.5" customHeight="1" spans="1:9">
-      <c r="A10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="10"/>
+    <row r="10" ht="34.5" customHeight="1" spans="1:10">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4">
+        <f>SUM(B10:F10)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="11" ht="34.5" customHeight="1" spans="1:9">
-      <c r="A11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" ht="34.5" customHeight="1" spans="1:9">
-      <c r="A12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="10"/>
+    <row r="11" ht="34.5" customHeight="1" spans="1:10">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4">
+        <f>SUM(B11:F11)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/public/static/template/dwtzqk.xlsx
+++ b/public/static/template/dwtzqk.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="11820"/>
+    <workbookView windowWidth="28060" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="对外投资情况表" sheetId="1" r:id="rId1"/>
@@ -82,13 +82,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -123,7 +123,121 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,137 +251,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,6 +275,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -294,162 +311,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -457,12 +456,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,6 +497,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -522,17 +530,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,15 +565,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -576,28 +580,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,148 +599,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1098,10 +1091,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3571428571429" defaultRowHeight="14.4" customHeight="1"/>
@@ -1177,13 +1170,13 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4">
-        <f>SUM(B3:F3)</f>
+        <f t="shared" ref="G3:G12" si="0">SUM(B3:F3)</f>
         <v>0</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="7"/>
       <c r="J3" s="8" t="e">
-        <f t="shared" ref="J3:J11" si="0">I3/G3/3%</f>
+        <f t="shared" ref="J3:J12" si="1">I3/G3/3%</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1197,13 +1190,13 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4">
-        <f>SUM(B4:F4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="7"/>
       <c r="J4" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1217,13 +1210,13 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4">
-        <f>SUM(B5:F5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="7"/>
       <c r="J5" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1237,13 +1230,13 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4">
-        <f>SUM(B6:F6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="7"/>
       <c r="J6" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1257,13 +1250,13 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4">
-        <f>SUM(B7:F7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="7"/>
       <c r="J7" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1277,13 +1270,13 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4">
-        <f>SUM(B8:F8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="7"/>
       <c r="J8" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1297,13 +1290,13 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4">
-        <f>SUM(B9:F9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="7"/>
       <c r="J9" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1317,13 +1310,13 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4">
-        <f>SUM(B10:F10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="7"/>
       <c r="J10" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1337,13 +1330,54 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4">
-        <f>SUM(B11:F11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="7"/>
       <c r="J11" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" ht="34.5" customHeight="1" spans="1:10">
+      <c r="A12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="4">
+        <f>SUM(B2:B11)</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <f>SUM(C2:C11)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <f>SUM(D2:D11)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <f>SUM(E2:E11)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <f>SUM(F2:F11)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <f>SUM(H2:H11)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f>SUM(I2:I11)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="8" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>

--- a/public/static/template/dwtzqk.xlsx
+++ b/public/static/template/dwtzqk.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="11760"/>
+    <workbookView windowWidth="28060" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="对外投资情况表" sheetId="1" r:id="rId1"/>
@@ -82,11 +82,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -123,12 +123,106 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -137,37 +231,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,76 +252,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -258,9 +259,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,31 +275,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,37 +437,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,109 +455,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,70 +497,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,6 +521,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -594,153 +579,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1094,7 +1094,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3571428571429" defaultRowHeight="14.4" customHeight="1"/>
@@ -1155,10 +1155,7 @@
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="8" t="e">
-        <f>I2/G2/3%</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" ht="34.5" customHeight="1" spans="1:10">
       <c r="A3" s="3" t="s">
@@ -1175,10 +1172,7 @@
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="8" t="e">
-        <f t="shared" ref="J3:J12" si="1">I3/G3/3%</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" ht="34.5" customHeight="1" spans="1:10">
       <c r="A4" s="3" t="s">
@@ -1195,10 +1189,7 @@
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" ht="34.5" customHeight="1" spans="1:10">
       <c r="A5" s="3" t="s">
@@ -1215,10 +1206,7 @@
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" ht="34.5" customHeight="1" spans="1:10">
       <c r="A6" s="3" t="s">
@@ -1235,10 +1223,7 @@
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" ht="34.5" customHeight="1" spans="1:10">
       <c r="A7" s="3" t="s">
@@ -1255,10 +1240,7 @@
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" ht="34.5" customHeight="1" spans="1:10">
       <c r="A8" s="3" t="s">
@@ -1275,10 +1257,7 @@
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" ht="34.5" customHeight="1" spans="1:10">
       <c r="A9" s="3" t="s">
@@ -1295,10 +1274,7 @@
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="7"/>
-      <c r="J9" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" ht="34.5" customHeight="1" spans="1:10">
       <c r="A10" s="3" t="s">
@@ -1315,10 +1291,7 @@
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" ht="34.5" customHeight="1" spans="1:10">
       <c r="A11" s="3" t="s">
@@ -1335,10 +1308,7 @@
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" ht="34.5" customHeight="1" spans="1:10">
       <c r="A12" s="3" t="s">
@@ -1376,10 +1346,7 @@
         <f>SUM(I2:I11)</f>
         <v>0</v>
       </c>
-      <c r="J12" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J12" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
